--- a/Config/DataTable/Monster.xlsx
+++ b/Config/DataTable/Monster.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>TestMonster001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +29,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CharacterLevel1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttributeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,36 +371,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
